--- a/sprint5/banco de dados/Formas Normais Excel.xlsx
+++ b/sprint5/banco de dados/Formas Normais Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\projeto-integrador-grupo06\sprint5\banco de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808D69EB-A7B9-463E-978C-1DCFA3F0D1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2494A6A-4F8C-4897-B86B-43EDC1BA6331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="0" windowWidth="14100" windowHeight="15600" activeTab="2" xr2:uid="{A5AD0B80-EC6E-42BF-91C3-BEE7AFA346DE}"/>
+    <workbookView xWindow="5655" yWindow="1455" windowWidth="18435" windowHeight="12045" activeTab="2" xr2:uid="{A5AD0B80-EC6E-42BF-91C3-BEE7AFA346DE}"/>
   </bookViews>
   <sheets>
     <sheet name="1 FN" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -106,12 +106,6 @@
     <t>id_categoria</t>
   </si>
   <si>
-    <t>id_imagem</t>
-  </si>
-  <si>
-    <t>pk_id_imaegm_categoria</t>
-  </si>
-  <si>
     <t>administrador</t>
   </si>
   <si>
@@ -190,25 +184,16 @@
     <t>Foto da Logo do ChatGPT</t>
   </si>
   <si>
-    <t>cat1</t>
-  </si>
-  <si>
-    <t>cat2</t>
-  </si>
-  <si>
-    <t>img1</t>
-  </si>
-  <si>
-    <t>img2</t>
-  </si>
-  <si>
-    <t>cat1_img1</t>
-  </si>
-  <si>
-    <t>cat2_img2</t>
-  </si>
-  <si>
     <t>ajustada para a 2FN</t>
+  </si>
+  <si>
+    <t>tb_categorias_x_artigos</t>
+  </si>
+  <si>
+    <t>id_artigo</t>
+  </si>
+  <si>
+    <t>pk_id_artigo_categoria</t>
   </si>
 </sst>
 </file>
@@ -362,15 +347,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -379,17 +355,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -409,9 +397,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -729,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8815BBA4-389D-41F7-918C-580D9E7A8F12}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:C37"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,12 +728,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -761,7 +746,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -769,10 +754,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -783,25 +768,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -831,19 +816,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4">
+        <v>12345678900</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="7">
-        <v>12345678900</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -854,32 +839,32 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="G11" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -903,12 +888,12 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="9">
+        <v>37</v>
+      </c>
+      <c r="D17" s="6">
         <v>45241</v>
       </c>
       <c r="E17" s="2">
@@ -920,12 +905,12 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="9">
+        <v>38</v>
+      </c>
+      <c r="D18" s="6">
         <v>45245</v>
       </c>
       <c r="E18" s="2">
@@ -933,13 +918,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="14"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -960,10 +945,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -974,21 +959,21 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D24" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1006,10 +991,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1017,39 +1002,39 @@
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="A33" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1072,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6F74CD-1ABB-4A09-96F7-E20103359B9C}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,12 +1071,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1104,7 +1089,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1112,10 +1097,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -1126,25 +1111,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1174,19 +1159,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4">
+        <v>12345678900</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="7">
-        <v>12345678900</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -1197,32 +1182,32 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="G11" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1246,12 +1231,12 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="9">
+        <v>37</v>
+      </c>
+      <c r="D17" s="6">
         <v>45241</v>
       </c>
       <c r="E17" s="2">
@@ -1263,12 +1248,12 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="9">
+        <v>38</v>
+      </c>
+      <c r="D18" s="6">
         <v>45245</v>
       </c>
       <c r="E18" s="2">
@@ -1276,12 +1261,12 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1302,10 +1287,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -1316,21 +1301,21 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D24" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1348,10 +1333,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1359,77 +1344,77 @@
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="17" t="s">
-        <v>56</v>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>1</v>
+      </c>
+      <c r="B35" s="8">
+        <v>1</v>
+      </c>
+      <c r="C35" s="8">
+        <v>11</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1</v>
+      </c>
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>2</v>
+      </c>
+      <c r="B36" s="8">
+        <v>2</v>
+      </c>
+      <c r="C36" s="8">
         <v>22</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="13">
-        <v>1</v>
-      </c>
-      <c r="E35" s="13">
-        <v>1</v>
-      </c>
-      <c r="F35" s="17"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="13">
-        <v>2</v>
-      </c>
-      <c r="E36" s="13">
-        <v>2</v>
-      </c>
-      <c r="F36" s="17"/>
+      <c r="D36" s="8">
+        <v>2</v>
+      </c>
+      <c r="E36" s="8">
+        <v>2</v>
+      </c>
+      <c r="F36" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1453,26 +1438,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE48A67-6625-4081-94CA-76F571FCA75F}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
     <col min="4" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1485,7 +1470,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1493,10 +1478,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -1507,25 +1492,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1555,19 +1540,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4">
+        <v>12345678900</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="7">
-        <v>12345678900</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -1578,32 +1563,32 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="G11" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1627,12 +1612,12 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="9">
+        <v>37</v>
+      </c>
+      <c r="D17" s="6">
         <v>45241</v>
       </c>
       <c r="E17" s="2">
@@ -1644,12 +1629,12 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="9">
+        <v>38</v>
+      </c>
+      <c r="D18" s="6">
         <v>45245</v>
       </c>
       <c r="E18" s="2">
@@ -1657,12 +1642,12 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1683,10 +1668,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -1697,21 +1682,21 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D24" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1729,10 +1714,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1740,84 +1725,84 @@
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="22"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <v>1</v>
+      </c>
+      <c r="B35" s="22">
+        <v>1</v>
+      </c>
+      <c r="C35" s="22">
+        <v>11</v>
+      </c>
+      <c r="D35" s="22">
+        <v>1</v>
+      </c>
+      <c r="E35" s="22">
+        <v>1</v>
+      </c>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>2</v>
+      </c>
+      <c r="B36" s="22">
+        <v>2</v>
+      </c>
+      <c r="C36" s="22">
         <v>22</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="21">
-        <v>1</v>
-      </c>
-      <c r="E35" s="21">
-        <v>1</v>
-      </c>
-      <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="21">
-        <v>2</v>
-      </c>
-      <c r="E36" s="21">
-        <v>2</v>
-      </c>
-      <c r="F36" s="22"/>
+      <c r="D36" s="22">
+        <v>2</v>
+      </c>
+      <c r="E36" s="22">
+        <v>2</v>
+      </c>
+      <c r="F36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C10" r:id="rId1" xr:uid="{CFDBA008-0C10-49A8-B63A-2894C5737A74}"/>

--- a/sprint5/banco de dados/Formas Normais Excel.xlsx
+++ b/sprint5/banco de dados/Formas Normais Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\projeto-integrador-grupo06\sprint5\banco de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2494A6A-4F8C-4897-B86B-43EDC1BA6331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D27E105-53CA-4F1D-BC89-9C2877A982B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="1455" windowWidth="18435" windowHeight="12045" activeTab="2" xr2:uid="{A5AD0B80-EC6E-42BF-91C3-BEE7AFA346DE}"/>
+    <workbookView xWindow="10365" yWindow="2160" windowWidth="18435" windowHeight="12045" activeTab="1" xr2:uid="{A5AD0B80-EC6E-42BF-91C3-BEE7AFA346DE}"/>
   </bookViews>
   <sheets>
     <sheet name="1 FN" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>tb_categorias</t>
-  </si>
-  <si>
-    <t>tb_categorias_x_imagens</t>
   </si>
   <si>
     <t>fk_id_categoria</t>
@@ -341,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -387,16 +384,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -746,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -754,10 +747,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -768,10 +761,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -816,19 +809,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D10" s="4">
         <v>12345678900</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -839,19 +832,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="G11" s="2">
         <v>2</v>
@@ -888,10 +881,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D17" s="6">
         <v>45241</v>
@@ -905,10 +898,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="6">
         <v>45245</v>
@@ -945,10 +938,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -959,10 +952,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2">
         <v>2</v>
@@ -991,10 +984,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1002,15 +995,15 @@
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -1023,7 +1016,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1057,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6F74CD-1ABB-4A09-96F7-E20103359B9C}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1082,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1097,10 +1090,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -1111,10 +1104,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -1159,19 +1152,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D10" s="4">
         <v>12345678900</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -1182,19 +1175,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="G11" s="2">
         <v>2</v>
@@ -1231,10 +1224,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D17" s="6">
         <v>45241</v>
@@ -1248,10 +1241,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="6">
         <v>45245</v>
@@ -1287,10 +1280,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -1301,10 +1294,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2">
         <v>2</v>
@@ -1333,10 +1326,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1344,39 +1337,39 @@
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F34" s="18"/>
     </row>
@@ -1438,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE48A67-6625-4081-94CA-76F571FCA75F}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,7 +1463,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1478,10 +1471,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -1492,10 +1485,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -1540,19 +1533,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D10" s="4">
         <v>12345678900</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -1563,19 +1556,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="G11" s="2">
         <v>2</v>
@@ -1612,10 +1605,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D17" s="6">
         <v>45241</v>
@@ -1629,10 +1622,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="6">
         <v>45245</v>
@@ -1668,10 +1661,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -1682,10 +1675,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2">
         <v>2</v>
@@ -1714,10 +1707,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1725,15 +1718,15 @@
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -1742,55 +1735,55 @@
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="21" t="s">
+      <c r="A34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="21" t="s">
-        <v>20</v>
+      <c r="E34" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
-        <v>1</v>
-      </c>
-      <c r="B35" s="22">
-        <v>1</v>
-      </c>
-      <c r="C35" s="22">
+      <c r="A35" s="2">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
         <v>11</v>
       </c>
-      <c r="D35" s="22">
-        <v>1</v>
-      </c>
-      <c r="E35" s="22">
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
         <v>1</v>
       </c>
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
-        <v>2</v>
-      </c>
-      <c r="B36" s="22">
-        <v>2</v>
-      </c>
-      <c r="C36" s="22">
+      <c r="A36" s="2">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2">
         <v>22</v>
       </c>
-      <c r="D36" s="22">
-        <v>2</v>
-      </c>
-      <c r="E36" s="22">
+      <c r="D36" s="2">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2">
         <v>2</v>
       </c>
       <c r="F36" s="10"/>
